--- a/AccountingApi/wwwroot/Files/Template.xlsx
+++ b/AccountingApi/wwwroot/Files/Template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="164">
   <si>
     <t>Kapital</t>
   </si>
@@ -45,9 +45,6 @@
     <t>CONTRA-ACCOUNT</t>
   </si>
   <si>
-    <t>CURRENCY</t>
-  </si>
-  <si>
     <t>Uzun müddətli aktivlər</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>LEVEL</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
   </si>
 </sst>
 </file>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
     <col min="4" max="4" width="19.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -939,10 +939,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -974,8 +974,8 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,8 +995,8 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -1016,8 +1016,8 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -1037,8 +1037,8 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,20 +1046,20 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -1079,8 +1079,8 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -1100,8 +1100,8 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -1121,8 +1121,8 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -1142,8 +1142,8 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -1163,8 +1163,8 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -1184,8 +1184,8 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,20 +1193,20 @@
         <v>173</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>174</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1226,8 +1226,8 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -1247,8 +1247,8 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>177</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -1268,8 +1268,8 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>178</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1289,8 +1289,8 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>179</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -1310,8 +1310,8 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -1331,8 +1331,8 @@
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>181</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -1352,8 +1352,8 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>182</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -1373,8 +1373,8 @@
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>183</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -1394,8 +1394,8 @@
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
-        <v>1</v>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -1415,8 +1415,8 @@
       <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>191</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -1436,8 +1436,8 @@
       <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>192</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -1457,8 +1457,8 @@
       <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>193</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
@@ -1478,8 +1478,8 @@
       <c r="F26" s="4">
         <v>0</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1502,8 +1502,8 @@
       <c r="F27" s="4">
         <v>0</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
@@ -1523,8 +1523,8 @@
       <c r="F28" s="4">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
+      <c r="G28" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>201</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4">
         <v>3</v>
@@ -1544,8 +1544,8 @@
       <c r="F29" s="4">
         <v>0</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
+      <c r="G29" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>205</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
@@ -1565,8 +1565,8 @@
       <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>206</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
@@ -1586,8 +1586,8 @@
       <c r="F31" s="4">
         <v>0</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
+      <c r="G31" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>207</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="4">
         <v>3</v>
@@ -1607,8 +1607,8 @@
       <c r="F32" s="4">
         <v>0</v>
       </c>
-      <c r="G32" s="1">
-        <v>1</v>
+      <c r="G32" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>208</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
@@ -1628,8 +1628,8 @@
       <c r="F33" s="4">
         <v>0</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="4">
         <v>2</v>
@@ -1649,8 +1649,8 @@
       <c r="F34" s="4">
         <v>0</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
+      <c r="G34" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>211</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="4">
         <v>3</v>
@@ -1670,8 +1670,8 @@
       <c r="F35" s="4">
         <v>0</v>
       </c>
-      <c r="G35" s="1">
-        <v>1</v>
+      <c r="G35" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>213</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="4">
         <v>3</v>
@@ -1691,8 +1691,8 @@
       <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="G36" s="1">
-        <v>1</v>
+      <c r="G36" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1700,7 +1700,7 @@
         <v>214</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="4">
         <v>3</v>
@@ -1712,8 +1712,8 @@
       <c r="F37" s="4">
         <v>0</v>
       </c>
-      <c r="G37" s="1">
-        <v>1</v>
+      <c r="G37" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>216</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4">
         <v>3</v>
@@ -1733,8 +1733,8 @@
       <c r="F38" s="4">
         <v>0</v>
       </c>
-      <c r="G38" s="1">
-        <v>1</v>
+      <c r="G38" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>217</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4">
         <v>3</v>
@@ -1754,8 +1754,8 @@
       <c r="F39" s="4">
         <v>0</v>
       </c>
-      <c r="G39" s="1">
-        <v>1</v>
+      <c r="G39" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>218</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="4">
         <v>3</v>
@@ -1775,8 +1775,8 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="G40" s="1">
-        <v>1</v>
+      <c r="G40" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
         <v>22</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
@@ -1796,8 +1796,8 @@
       <c r="F41" s="4">
         <v>0</v>
       </c>
-      <c r="G41" s="1">
-        <v>1</v>
+      <c r="G41" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>221</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="4">
         <v>3</v>
@@ -1817,8 +1817,8 @@
       <c r="F42" s="4">
         <v>0</v>
       </c>
-      <c r="G42" s="1">
-        <v>1</v>
+      <c r="G42" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
         <v>222</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="4">
         <v>3</v>
@@ -1838,8 +1838,8 @@
       <c r="F43" s="4">
         <v>0</v>
       </c>
-      <c r="G43" s="1">
-        <v>1</v>
+      <c r="G43" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>223</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="4">
         <v>3</v>
@@ -1859,8 +1859,8 @@
       <c r="F44" s="4">
         <v>0</v>
       </c>
-      <c r="G44" s="1">
-        <v>1</v>
+      <c r="G44" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
         <v>224</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="4">
         <v>3</v>
@@ -1880,8 +1880,8 @@
       <c r="F45" s="4">
         <v>0</v>
       </c>
-      <c r="G45" s="1">
-        <v>1</v>
+      <c r="G45" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>225</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="4">
         <v>3</v>
@@ -1901,8 +1901,8 @@
       <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="G46" s="1">
-        <v>1</v>
+      <c r="G46" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>24</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -1922,8 +1922,8 @@
       <c r="F47" s="4">
         <v>0</v>
       </c>
-      <c r="G47" s="1">
-        <v>1</v>
+      <c r="G47" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
         <v>241</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="4">
         <v>3</v>
@@ -1943,8 +1943,8 @@
       <c r="F48" s="4">
         <v>0</v>
       </c>
-      <c r="G48" s="1">
-        <v>1</v>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>242</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="4">
         <v>3</v>
@@ -1964,8 +1964,8 @@
       <c r="F49" s="4">
         <v>0</v>
       </c>
-      <c r="G49" s="1">
-        <v>1</v>
+      <c r="G49" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
         <v>243</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4">
         <v>3</v>
@@ -1985,8 +1985,8 @@
       <c r="F50" s="4">
         <v>0</v>
       </c>
-      <c r="G50" s="1">
-        <v>1</v>
+      <c r="G50" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
         <v>244</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4">
         <v>3</v>
@@ -2006,8 +2006,8 @@
       <c r="F51" s="4">
         <v>0</v>
       </c>
-      <c r="G51" s="1">
-        <v>1</v>
+      <c r="G51" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>245</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="4">
         <v>3</v>
@@ -2027,8 +2027,8 @@
       <c r="F52" s="4">
         <v>0</v>
       </c>
-      <c r="G52" s="1">
-        <v>1</v>
+      <c r="G52" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>246</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="4">
         <v>3</v>
@@ -2048,8 +2048,8 @@
       <c r="F53" s="4">
         <v>0</v>
       </c>
-      <c r="G53" s="1">
-        <v>1</v>
+      <c r="G53" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2072,8 +2072,8 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="G54" s="1">
-        <v>1</v>
+      <c r="G54" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
@@ -2093,8 +2093,8 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="G55" s="1">
-        <v>1</v>
+      <c r="G55" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>301</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="4">
         <v>3</v>
@@ -2114,8 +2114,8 @@
       <c r="F56" s="4">
         <v>0</v>
       </c>
-      <c r="G56" s="1">
-        <v>1</v>
+      <c r="G56" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
         <v>302</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="4">
         <v>3</v>
@@ -2135,8 +2135,8 @@
       <c r="F57" s="4">
         <v>1</v>
       </c>
-      <c r="G57" s="1">
-        <v>1</v>
+      <c r="G57" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>31</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -2156,8 +2156,8 @@
       <c r="F58" s="4">
         <v>0</v>
       </c>
-      <c r="G58" s="1">
-        <v>1</v>
+      <c r="G58" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2165,7 +2165,7 @@
         <v>311</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4">
         <v>3</v>
@@ -2177,8 +2177,8 @@
       <c r="F59" s="4">
         <v>0</v>
       </c>
-      <c r="G59" s="1">
-        <v>1</v>
+      <c r="G59" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2186,7 +2186,7 @@
         <v>32</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -2198,8 +2198,8 @@
       <c r="F60" s="4">
         <v>1</v>
       </c>
-      <c r="G60" s="1">
-        <v>1</v>
+      <c r="G60" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>321</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4">
         <v>3</v>
@@ -2219,8 +2219,8 @@
       <c r="F61" s="4">
         <v>1</v>
       </c>
-      <c r="G61" s="1">
-        <v>1</v>
+      <c r="G61" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
         <v>33</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" s="4">
         <v>2</v>
@@ -2240,8 +2240,8 @@
       <c r="F62" s="4">
         <v>0</v>
       </c>
-      <c r="G62" s="1">
-        <v>1</v>
+      <c r="G62" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
         <v>331</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="4">
         <v>3</v>
@@ -2261,8 +2261,8 @@
       <c r="F63" s="4">
         <v>0</v>
       </c>
-      <c r="G63" s="1">
-        <v>1</v>
+      <c r="G63" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2270,7 +2270,7 @@
         <v>332</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="4">
         <v>3</v>
@@ -2282,8 +2282,8 @@
       <c r="F64" s="4">
         <v>0</v>
       </c>
-      <c r="G64" s="1">
-        <v>1</v>
+      <c r="G64" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2291,7 +2291,7 @@
         <v>333</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="4">
         <v>3</v>
@@ -2303,8 +2303,8 @@
       <c r="F65" s="4">
         <v>0</v>
       </c>
-      <c r="G65" s="1">
-        <v>1</v>
+      <c r="G65" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>334</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
         <v>3</v>
@@ -2324,8 +2324,8 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="G66" s="1">
-        <v>1</v>
+      <c r="G66" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2333,7 +2333,7 @@
         <v>335</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D67" s="4">
         <v>3</v>
@@ -2345,8 +2345,8 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="G67" s="1">
-        <v>1</v>
+      <c r="G67" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>34</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
@@ -2366,8 +2366,8 @@
       <c r="F68" s="4">
         <v>0</v>
       </c>
-      <c r="G68" s="1">
-        <v>1</v>
+      <c r="G68" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>341</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4">
         <v>3</v>
@@ -2387,8 +2387,8 @@
       <c r="F69" s="4">
         <v>0</v>
       </c>
-      <c r="G69" s="1">
-        <v>1</v>
+      <c r="G69" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>342</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" s="4">
         <v>3</v>
@@ -2408,8 +2408,8 @@
       <c r="F70" s="4">
         <v>0</v>
       </c>
-      <c r="G70" s="1">
-        <v>1</v>
+      <c r="G70" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2417,7 +2417,7 @@
         <v>343</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" s="4">
         <v>3</v>
@@ -2429,8 +2429,8 @@
       <c r="F71" s="4">
         <v>0</v>
       </c>
-      <c r="G71" s="1">
-        <v>1</v>
+      <c r="G71" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
@@ -2453,8 +2453,8 @@
       <c r="F72" s="4">
         <v>0</v>
       </c>
-      <c r="G72" s="1">
-        <v>1</v>
+      <c r="G72" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -2474,8 +2474,8 @@
       <c r="F73" s="4">
         <v>0</v>
       </c>
-      <c r="G73" s="1">
-        <v>1</v>
+      <c r="G73" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2483,7 +2483,7 @@
         <v>401</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="4">
         <v>3</v>
@@ -2495,8 +2495,8 @@
       <c r="F74" s="4">
         <v>0</v>
       </c>
-      <c r="G74" s="1">
-        <v>1</v>
+      <c r="G74" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>402</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75" s="4">
         <v>3</v>
@@ -2516,8 +2516,8 @@
       <c r="F75" s="4">
         <v>0</v>
       </c>
-      <c r="G75" s="1">
-        <v>1</v>
+      <c r="G75" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2525,7 +2525,7 @@
         <v>404</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D76" s="4">
         <v>3</v>
@@ -2537,8 +2537,8 @@
       <c r="F76" s="4">
         <v>0</v>
       </c>
-      <c r="G76" s="1">
-        <v>1</v>
+      <c r="G76" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>405</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77" s="4">
         <v>3</v>
@@ -2558,8 +2558,8 @@
       <c r="F77" s="4">
         <v>0</v>
       </c>
-      <c r="G77" s="1">
-        <v>1</v>
+      <c r="G77" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>406</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78" s="4">
         <v>3</v>
@@ -2579,8 +2579,8 @@
       <c r="F78" s="4">
         <v>0</v>
       </c>
-      <c r="G78" s="1">
-        <v>1</v>
+      <c r="G78" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
         <v>408</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="4">
         <v>3</v>
@@ -2600,8 +2600,8 @@
       <c r="F79" s="4">
         <v>0</v>
       </c>
-      <c r="G79" s="1">
-        <v>1</v>
+      <c r="G79" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2609,7 +2609,7 @@
         <v>41</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80" s="4">
         <v>2</v>
@@ -2621,8 +2621,8 @@
       <c r="F80" s="4">
         <v>0</v>
       </c>
-      <c r="G80" s="1">
-        <v>1</v>
+      <c r="G80" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>411</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" s="4">
         <v>3</v>
@@ -2642,8 +2642,8 @@
       <c r="F81" s="4">
         <v>0</v>
       </c>
-      <c r="G81" s="1">
-        <v>1</v>
+      <c r="G81" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>412</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" s="4">
         <v>3</v>
@@ -2663,8 +2663,8 @@
       <c r="F82" s="4">
         <v>0</v>
       </c>
-      <c r="G82" s="1">
-        <v>1</v>
+      <c r="G82" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>413</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83" s="4">
         <v>3</v>
@@ -2684,8 +2684,8 @@
       <c r="F83" s="4">
         <v>0</v>
       </c>
-      <c r="G83" s="1">
-        <v>1</v>
+      <c r="G83" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>414</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="4">
         <v>3</v>
@@ -2705,8 +2705,8 @@
       <c r="F84" s="4">
         <v>0</v>
       </c>
-      <c r="G84" s="1">
-        <v>1</v>
+      <c r="G84" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
         <v>42</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" s="4">
         <v>2</v>
@@ -2726,8 +2726,8 @@
       <c r="F85" s="4">
         <v>0</v>
       </c>
-      <c r="G85" s="1">
-        <v>1</v>
+      <c r="G85" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
         <v>421</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="4">
         <v>3</v>
@@ -2747,8 +2747,8 @@
       <c r="F86" s="4">
         <v>0</v>
       </c>
-      <c r="G86" s="1">
-        <v>1</v>
+      <c r="G86" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>422</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" s="4">
         <v>3</v>
@@ -2768,8 +2768,8 @@
       <c r="F87" s="4">
         <v>0</v>
       </c>
-      <c r="G87" s="1">
-        <v>1</v>
+      <c r="G87" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4">
         <v>2</v>
@@ -2789,8 +2789,8 @@
       <c r="F88" s="4">
         <v>0</v>
       </c>
-      <c r="G88" s="1">
-        <v>1</v>
+      <c r="G88" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>431</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4">
         <v>3</v>
@@ -2810,8 +2810,8 @@
       <c r="F89" s="4">
         <v>0</v>
       </c>
-      <c r="G89" s="1">
-        <v>1</v>
+      <c r="G89" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>434</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="4">
         <v>3</v>
@@ -2831,8 +2831,8 @@
       <c r="F90" s="4">
         <v>0</v>
       </c>
-      <c r="G90" s="1">
-        <v>1</v>
+      <c r="G90" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>435</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" s="4">
         <v>3</v>
@@ -2852,8 +2852,8 @@
       <c r="F91" s="4">
         <v>0</v>
       </c>
-      <c r="G91" s="1">
-        <v>1</v>
+      <c r="G91" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2861,7 +2861,7 @@
         <v>436</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="4">
         <v>3</v>
@@ -2873,8 +2873,8 @@
       <c r="F92" s="4">
         <v>0</v>
       </c>
-      <c r="G92" s="1">
-        <v>1</v>
+      <c r="G92" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>44</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="4">
         <v>2</v>
@@ -2894,8 +2894,8 @@
       <c r="F93" s="4">
         <v>0</v>
       </c>
-      <c r="G93" s="1">
-        <v>1</v>
+      <c r="G93" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2903,7 +2903,7 @@
         <v>442</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94" s="4">
         <v>3</v>
@@ -2915,8 +2915,8 @@
       <c r="F94" s="4">
         <v>0</v>
       </c>
-      <c r="G94" s="1">
-        <v>1</v>
+      <c r="G94" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>443</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="4">
         <v>3</v>
@@ -2936,8 +2936,8 @@
       <c r="F95" s="4">
         <v>0</v>
       </c>
-      <c r="G95" s="1">
-        <v>1</v>
+      <c r="G95" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2945,7 +2945,7 @@
         <v>444</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96" s="4">
         <v>3</v>
@@ -2957,8 +2957,8 @@
       <c r="F96" s="4">
         <v>0</v>
       </c>
-      <c r="G96" s="1">
-        <v>1</v>
+      <c r="G96" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2966,7 +2966,7 @@
         <v>445</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D97" s="4">
         <v>3</v>
@@ -2978,8 +2978,8 @@
       <c r="F97" s="4">
         <v>0</v>
       </c>
-      <c r="G97" s="1">
-        <v>1</v>
+      <c r="G97" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2987,7 +2987,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" s="4">
         <v>0</v>
@@ -3002,8 +3002,8 @@
       <c r="F98" s="4">
         <v>0</v>
       </c>
-      <c r="G98" s="1">
-        <v>1</v>
+      <c r="G98" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3011,7 +3011,7 @@
         <v>50</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D99" s="4">
         <v>2</v>
@@ -3023,8 +3023,8 @@
       <c r="F99" s="4">
         <v>0</v>
       </c>
-      <c r="G99" s="1">
-        <v>1</v>
+      <c r="G99" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
         <v>501</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D100" s="4">
         <v>3</v>
@@ -3044,8 +3044,8 @@
       <c r="F100" s="4">
         <v>0</v>
       </c>
-      <c r="G100" s="1">
-        <v>1</v>
+      <c r="G100" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>502</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D101" s="4">
         <v>3</v>
@@ -3065,8 +3065,8 @@
       <c r="F101" s="4">
         <v>0</v>
       </c>
-      <c r="G101" s="1">
-        <v>1</v>
+      <c r="G101" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>504</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D102" s="4">
         <v>3</v>
@@ -3086,8 +3086,8 @@
       <c r="F102" s="4">
         <v>0</v>
       </c>
-      <c r="G102" s="1">
-        <v>1</v>
+      <c r="G102" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>505</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D103" s="4">
         <v>3</v>
@@ -3107,8 +3107,8 @@
       <c r="F103" s="4">
         <v>0</v>
       </c>
-      <c r="G103" s="1">
-        <v>1</v>
+      <c r="G103" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>507</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D104" s="4">
         <v>3</v>
@@ -3128,8 +3128,8 @@
       <c r="F104" s="4">
         <v>0</v>
       </c>
-      <c r="G104" s="1">
-        <v>1</v>
+      <c r="G104" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3137,7 +3137,7 @@
         <v>51</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
@@ -3149,8 +3149,8 @@
       <c r="F105" s="4">
         <v>0</v>
       </c>
-      <c r="G105" s="1">
-        <v>1</v>
+      <c r="G105" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
         <v>511</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D106" s="4">
         <v>3</v>
@@ -3170,8 +3170,8 @@
       <c r="F106" s="4">
         <v>0</v>
       </c>
-      <c r="G106" s="1">
-        <v>1</v>
+      <c r="G106" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3179,7 +3179,7 @@
         <v>512</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D107" s="4">
         <v>3</v>
@@ -3191,8 +3191,8 @@
       <c r="F107" s="4">
         <v>0</v>
       </c>
-      <c r="G107" s="1">
-        <v>1</v>
+      <c r="G107" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3200,7 +3200,7 @@
         <v>513</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D108" s="4">
         <v>3</v>
@@ -3212,8 +3212,8 @@
       <c r="F108" s="4">
         <v>0</v>
       </c>
-      <c r="G108" s="1">
-        <v>1</v>
+      <c r="G108" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>515</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D109" s="4">
         <v>3</v>
@@ -3233,8 +3233,8 @@
       <c r="F109" s="4">
         <v>0</v>
       </c>
-      <c r="G109" s="1">
-        <v>1</v>
+      <c r="G109" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3242,7 +3242,7 @@
         <v>52</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D110" s="4">
         <v>2</v>
@@ -3254,8 +3254,8 @@
       <c r="F110" s="4">
         <v>0</v>
       </c>
-      <c r="G110" s="1">
-        <v>1</v>
+      <c r="G110" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>521</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D111" s="4">
         <v>3</v>
@@ -3275,8 +3275,8 @@
       <c r="F111" s="4">
         <v>0</v>
       </c>
-      <c r="G111" s="1">
-        <v>1</v>
+      <c r="G111" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>522</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D112" s="4">
         <v>3</v>
@@ -3296,8 +3296,8 @@
       <c r="F112" s="4">
         <v>0</v>
       </c>
-      <c r="G112" s="1">
-        <v>1</v>
+      <c r="G112" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
         <v>523</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D113" s="4">
         <v>3</v>
@@ -3317,8 +3317,8 @@
       <c r="F113" s="4">
         <v>0</v>
       </c>
-      <c r="G113" s="1">
-        <v>1</v>
+      <c r="G113" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3326,7 +3326,7 @@
         <v>53</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D114" s="4">
         <v>2</v>
@@ -3338,8 +3338,8 @@
       <c r="F114" s="4">
         <v>0</v>
       </c>
-      <c r="G114" s="1">
-        <v>1</v>
+      <c r="G114" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3347,7 +3347,7 @@
         <v>531</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D115" s="4">
         <v>3</v>
@@ -3359,8 +3359,8 @@
       <c r="F115" s="4">
         <v>0</v>
       </c>
-      <c r="G115" s="1">
-        <v>1</v>
+      <c r="G115" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3368,7 +3368,7 @@
         <v>533</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D116" s="4">
         <v>3</v>
@@ -3380,8 +3380,8 @@
       <c r="F116" s="4">
         <v>0</v>
       </c>
-      <c r="G116" s="1">
-        <v>1</v>
+      <c r="G116" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3389,7 +3389,7 @@
         <v>534</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D117" s="4">
         <v>3</v>
@@ -3401,8 +3401,8 @@
       <c r="F117" s="4">
         <v>0</v>
       </c>
-      <c r="G117" s="1">
-        <v>1</v>
+      <c r="G117" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,7 +3410,7 @@
         <v>535</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D118" s="4">
         <v>3</v>
@@ -3422,8 +3422,8 @@
       <c r="F118" s="4">
         <v>0</v>
       </c>
-      <c r="G118" s="1">
-        <v>1</v>
+      <c r="G118" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>536</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D119" s="4">
         <v>3</v>
@@ -3443,8 +3443,8 @@
       <c r="F119" s="4">
         <v>0</v>
       </c>
-      <c r="G119" s="1">
-        <v>1</v>
+      <c r="G119" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>537</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D120" s="4">
         <v>3</v>
@@ -3464,8 +3464,8 @@
       <c r="F120" s="4">
         <v>0</v>
       </c>
-      <c r="G120" s="1">
-        <v>1</v>
+      <c r="G120" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
         <v>538</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D121" s="4">
         <v>3</v>
@@ -3485,8 +3485,8 @@
       <c r="F121" s="4">
         <v>0</v>
       </c>
-      <c r="G121" s="1">
-        <v>1</v>
+      <c r="G121" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <v>54</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D122" s="4">
         <v>2</v>
@@ -3506,8 +3506,8 @@
       <c r="F122" s="4">
         <v>0</v>
       </c>
-      <c r="G122" s="1">
-        <v>1</v>
+      <c r="G122" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>542</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D123" s="4">
         <v>3</v>
@@ -3527,8 +3527,8 @@
       <c r="F123" s="4">
         <v>0</v>
       </c>
-      <c r="G123" s="1">
-        <v>1</v>
+      <c r="G123" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,7 +3536,7 @@
         <v>543</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D124" s="4">
         <v>3</v>
@@ -3548,8 +3548,8 @@
       <c r="F124" s="4">
         <v>0</v>
       </c>
-      <c r="G124" s="1">
-        <v>1</v>
+      <c r="G124" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>544</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D125" s="4">
         <v>3</v>
@@ -3569,8 +3569,8 @@
       <c r="F125" s="4">
         <v>0</v>
       </c>
-      <c r="G125" s="1">
-        <v>1</v>
+      <c r="G125" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3578,7 +3578,7 @@
         <v>545</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D126" s="4">
         <v>3</v>
@@ -3590,8 +3590,8 @@
       <c r="F126" s="4">
         <v>0</v>
       </c>
-      <c r="G126" s="1">
-        <v>1</v>
+      <c r="G126" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -3614,8 +3614,8 @@
       <c r="F127" s="4">
         <v>0</v>
       </c>
-      <c r="G127" s="1">
-        <v>1</v>
+      <c r="G127" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>60</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D128" s="4">
         <v>2</v>
@@ -3635,8 +3635,8 @@
       <c r="F128" s="4">
         <v>0</v>
       </c>
-      <c r="G128" s="1">
-        <v>1</v>
+      <c r="G128" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
         <v>601</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D129" s="4">
         <v>3</v>
@@ -3656,8 +3656,8 @@
       <c r="F129" s="4">
         <v>0</v>
       </c>
-      <c r="G129" s="1">
-        <v>1</v>
+      <c r="G129" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
         <v>602</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D130" s="4">
         <v>3</v>
@@ -3677,8 +3677,8 @@
       <c r="F130" s="4">
         <v>1</v>
       </c>
-      <c r="G130" s="1">
-        <v>1</v>
+      <c r="G130" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3686,7 +3686,7 @@
         <v>603</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D131" s="4">
         <v>3</v>
@@ -3698,8 +3698,8 @@
       <c r="F131" s="4">
         <v>1</v>
       </c>
-      <c r="G131" s="1">
-        <v>1</v>
+      <c r="G131" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3707,7 +3707,7 @@
         <v>61</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D132" s="4">
         <v>2</v>
@@ -3719,8 +3719,8 @@
       <c r="F132" s="4">
         <v>0</v>
       </c>
-      <c r="G132" s="1">
-        <v>1</v>
+      <c r="G132" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>611</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D133" s="4">
         <v>3</v>
@@ -3740,8 +3740,8 @@
       <c r="F133" s="4">
         <v>0</v>
       </c>
-      <c r="G133" s="1">
-        <v>1</v>
+      <c r="G133" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3749,7 +3749,7 @@
         <v>63</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D134" s="4">
         <v>2</v>
@@ -3761,8 +3761,8 @@
       <c r="F134" s="4">
         <v>0</v>
       </c>
-      <c r="G134" s="1">
-        <v>1</v>
+      <c r="G134" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3770,7 +3770,7 @@
         <v>631</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D135" s="4">
         <v>3</v>
@@ -3782,8 +3782,8 @@
       <c r="F135" s="4">
         <v>0</v>
       </c>
-      <c r="G135" s="1">
-        <v>1</v>
+      <c r="G135" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3791,7 +3791,7 @@
         <v>65</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D136" s="4">
         <v>2</v>
@@ -3803,8 +3803,8 @@
       <c r="F136" s="4">
         <v>0</v>
       </c>
-      <c r="G136" s="1">
-        <v>1</v>
+      <c r="G136" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>651</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D137" s="4">
         <v>3</v>
@@ -3824,8 +3824,8 @@
       <c r="F137" s="4">
         <v>0</v>
       </c>
-      <c r="G137" s="1">
-        <v>1</v>
+      <c r="G137" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="4">
         <v>1</v>
@@ -3848,8 +3848,8 @@
       <c r="F138" s="4">
         <v>0</v>
       </c>
-      <c r="G138" s="1">
-        <v>1</v>
+      <c r="G138" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
         <v>70</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D139" s="4">
         <v>2</v>
@@ -3869,8 +3869,8 @@
       <c r="F139" s="4">
         <v>0</v>
       </c>
-      <c r="G139" s="1">
-        <v>1</v>
+      <c r="G139" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
         <v>701</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D140" s="4">
         <v>3</v>
@@ -3890,8 +3890,8 @@
       <c r="F140" s="4">
         <v>0</v>
       </c>
-      <c r="G140" s="1">
-        <v>1</v>
+      <c r="G140" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,7 +3899,7 @@
         <v>71</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D141" s="4">
         <v>2</v>
@@ -3911,8 +3911,8 @@
       <c r="F141" s="4">
         <v>0</v>
       </c>
-      <c r="G141" s="1">
-        <v>1</v>
+      <c r="G141" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>711</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D142" s="4">
         <v>3</v>
@@ -3932,8 +3932,8 @@
       <c r="F142" s="4">
         <v>0</v>
       </c>
-      <c r="G142" s="1">
-        <v>1</v>
+      <c r="G142" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3941,7 +3941,7 @@
         <v>72</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" s="4">
         <v>2</v>
@@ -3953,8 +3953,8 @@
       <c r="F143" s="4">
         <v>0</v>
       </c>
-      <c r="G143" s="1">
-        <v>1</v>
+      <c r="G143" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3962,7 +3962,7 @@
         <v>721</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D144" s="4">
         <v>3</v>
@@ -3974,8 +3974,8 @@
       <c r="F144" s="4">
         <v>0</v>
       </c>
-      <c r="G144" s="1">
-        <v>1</v>
+      <c r="G144" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3983,7 +3983,7 @@
         <v>722</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D145" s="4">
         <v>3</v>
@@ -3995,8 +3995,8 @@
       <c r="F145" s="4">
         <v>0</v>
       </c>
-      <c r="G145" s="1">
-        <v>1</v>
+      <c r="G145" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4004,7 +4004,7 @@
         <v>723</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D146" s="4">
         <v>3</v>
@@ -4016,8 +4016,8 @@
       <c r="F146" s="4">
         <v>0</v>
       </c>
-      <c r="G146" s="1">
-        <v>1</v>
+      <c r="G146" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,7 +4025,7 @@
         <v>724</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="4">
         <v>3</v>
@@ -4037,8 +4037,8 @@
       <c r="F147" s="4">
         <v>0</v>
       </c>
-      <c r="G147" s="1">
-        <v>1</v>
+      <c r="G147" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4046,7 +4046,7 @@
         <v>725</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" s="4">
         <v>3</v>
@@ -4058,8 +4058,8 @@
       <c r="F148" s="4">
         <v>0</v>
       </c>
-      <c r="G148" s="1">
-        <v>1</v>
+      <c r="G148" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4067,7 +4067,7 @@
         <v>726</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D149" s="4">
         <v>3</v>
@@ -4079,8 +4079,8 @@
       <c r="F149" s="4">
         <v>0</v>
       </c>
-      <c r="G149" s="1">
-        <v>1</v>
+      <c r="G149" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
         <v>727</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D150" s="4">
         <v>3</v>
@@ -4100,8 +4100,8 @@
       <c r="F150" s="4">
         <v>0</v>
       </c>
-      <c r="G150" s="1">
-        <v>1</v>
+      <c r="G150" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4109,7 +4109,7 @@
         <v>728</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" s="4">
         <v>3</v>
@@ -4121,8 +4121,8 @@
       <c r="F151" s="4">
         <v>0</v>
       </c>
-      <c r="G151" s="1">
-        <v>1</v>
+      <c r="G151" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
         <v>729</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D152" s="4">
         <v>3</v>
@@ -4142,8 +4142,8 @@
       <c r="F152" s="4">
         <v>0</v>
       </c>
-      <c r="G152" s="1">
-        <v>1</v>
+      <c r="G152" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" s="4">
         <v>2</v>
@@ -4163,8 +4163,8 @@
       <c r="F153" s="4">
         <v>0</v>
       </c>
-      <c r="G153" s="1">
-        <v>1</v>
+      <c r="G153" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>730</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" s="4">
         <v>3</v>
@@ -4184,8 +4184,8 @@
       <c r="F154" s="4">
         <v>0</v>
       </c>
-      <c r="G154" s="1">
-        <v>1</v>
+      <c r="G154" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4193,7 +4193,7 @@
         <v>731</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D155" s="4">
         <v>3</v>
@@ -4205,8 +4205,8 @@
       <c r="F155" s="4">
         <v>0</v>
       </c>
-      <c r="G155" s="1">
-        <v>1</v>
+      <c r="G155" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4214,7 +4214,7 @@
         <v>75</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D156" s="4">
         <v>2</v>
@@ -4226,8 +4226,8 @@
       <c r="F156" s="4">
         <v>0</v>
       </c>
-      <c r="G156" s="1">
-        <v>1</v>
+      <c r="G156" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4235,7 +4235,7 @@
         <v>751</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D157" s="4">
         <v>3</v>
@@ -4247,8 +4247,8 @@
       <c r="F157" s="4">
         <v>0</v>
       </c>
-      <c r="G157" s="1">
-        <v>1</v>
+      <c r="G157" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4256,7 +4256,7 @@
         <v>78</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D158" s="4">
         <v>2</v>
@@ -4268,8 +4268,8 @@
       <c r="F158" s="4">
         <v>0</v>
       </c>
-      <c r="G158" s="1">
-        <v>1</v>
+      <c r="G158" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4277,7 +4277,7 @@
         <v>781</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D159" s="4">
         <v>3</v>
@@ -4289,8 +4289,8 @@
       <c r="F159" s="4">
         <v>0</v>
       </c>
-      <c r="G159" s="1">
-        <v>1</v>
+      <c r="G159" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>782</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D160" s="4">
         <v>3</v>
@@ -4310,8 +4310,8 @@
       <c r="F160" s="4">
         <v>0</v>
       </c>
-      <c r="G160" s="1">
-        <v>1</v>
+      <c r="G160" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>79</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D161" s="4">
         <v>2</v>
@@ -4331,8 +4331,8 @@
       <c r="F161" s="4">
         <v>0</v>
       </c>
-      <c r="G161" s="1">
-        <v>1</v>
+      <c r="G161" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
         <v>791</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D162" s="4">
         <v>3</v>
@@ -4352,8 +4352,8 @@
       <c r="F162" s="4">
         <v>0</v>
       </c>
-      <c r="G162" s="1">
-        <v>1</v>
+      <c r="G162" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4361,7 +4361,7 @@
         <v>8</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C163" s="4">
         <v>0</v>
@@ -4376,8 +4376,8 @@
       <c r="F163" s="4">
         <v>0</v>
       </c>
-      <c r="G163" s="1">
-        <v>1</v>
+      <c r="G163" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>80</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D164" s="4">
         <v>2</v>
@@ -4397,8 +4397,8 @@
       <c r="F164" s="4">
         <v>0</v>
       </c>
-      <c r="G164" s="1">
-        <v>1</v>
+      <c r="G164" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4406,7 +4406,7 @@
         <v>801</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D165" s="4">
         <v>3</v>
@@ -4418,8 +4418,8 @@
       <c r="F165" s="4">
         <v>0</v>
       </c>
-      <c r="G165" s="1">
-        <v>1</v>
+      <c r="G165" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4427,7 +4427,7 @@
         <v>9</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -4442,8 +4442,8 @@
       <c r="F166" s="4">
         <v>0</v>
       </c>
-      <c r="G166" s="1">
-        <v>1</v>
+      <c r="G166" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4451,7 +4451,7 @@
         <v>90</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D167" s="4">
         <v>2</v>
@@ -4463,8 +4463,8 @@
       <c r="F167" s="4">
         <v>1</v>
       </c>
-      <c r="G167" s="1">
-        <v>1</v>
+      <c r="G167" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>901</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D168" s="4">
         <v>3</v>
@@ -4484,8 +4484,8 @@
       <c r="F168" s="4">
         <v>1</v>
       </c>
-      <c r="G168" s="1">
-        <v>1</v>
+      <c r="G168" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4493,7 +4493,7 @@
         <v>902</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D169" s="4">
         <v>3</v>
@@ -4505,8 +4505,8 @@
       <c r="F169" s="4">
         <v>0</v>
       </c>
-      <c r="G169" s="1">
-        <v>1</v>
+      <c r="G169" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
